--- a/data/grammar_1.xlsx
+++ b/data/grammar_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HTML\HSPT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HTML\HSPT\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="JS+IKhYifKlIOpftc0fNQ4d7dAulK2CvKrQf80UmtR0JcJspOdnC8sufi7c5pBBS7Wq/jE85duxM0r2QAnP5Tw==" workbookSaltValue="2Ub8bcuzZLRVuAdvbiE1KA==" workbookSpinCount="100000" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="VtbG/hUSwvbuZC4poOKyOCQIsokuvoPSsEroFAgaxCKiWfcrr7S45/f1Zu/2FwNoLb9WPcQNJdr9Ben7AVR2qA==" workbookSaltValue="9D2DbxV6tva8nhsZH4dU4A==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="1" activeTab="1"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="233">
   <si>
     <t>head</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,10 +279,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>This is a interesting book. =&gt; ____________ interesting.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Book is this</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -484,22 +480,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>That cat is</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cat is that</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>That is cat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Is that cat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>These are foxes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -848,10 +828,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>He does come at three.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>They sandwiches eat.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -949,6 +925,26 @@
   </si>
   <si>
     <t>의문문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is an interesting book. =&gt; ____________ interesting.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Car is that</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That is car</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is that car</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He does comes at three.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1281,8 +1277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView topLeftCell="C26" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1307,31 +1303,31 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I1" t="s">
         <v>215</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>216</v>
       </c>
-      <c r="E1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>218</v>
-      </c>
-      <c r="G1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H1" t="s">
-        <v>220</v>
-      </c>
-      <c r="I1" t="s">
-        <v>221</v>
-      </c>
-      <c r="J1" t="s">
-        <v>222</v>
-      </c>
-      <c r="K1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -1366,7 +1362,7 @@
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1401,7 +1397,7 @@
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1436,7 +1432,7 @@
         <v>4</v>
       </c>
       <c r="K4" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1471,7 +1467,7 @@
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1506,7 +1502,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1541,7 +1537,7 @@
         <v>2</v>
       </c>
       <c r="K7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1576,7 +1572,7 @@
         <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -1611,7 +1607,7 @@
         <v>4</v>
       </c>
       <c r="K9" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1646,7 +1642,7 @@
         <v>3</v>
       </c>
       <c r="K10" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1681,7 +1677,7 @@
         <v>2</v>
       </c>
       <c r="K11" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1716,7 +1712,7 @@
         <v>4</v>
       </c>
       <c r="K12" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1751,7 +1747,7 @@
         <v>3</v>
       </c>
       <c r="K13" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1786,7 +1782,7 @@
         <v>4</v>
       </c>
       <c r="K14" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1821,7 +1817,7 @@
         <v>3</v>
       </c>
       <c r="K15" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1835,7 +1831,7 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
         <v>40</v>
@@ -1856,7 +1852,7 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1867,31 +1863,31 @@
         <v>64</v>
       </c>
       <c r="C17" t="s">
+        <v>228</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" t="s">
         <v>65</v>
       </c>
-      <c r="D17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>67</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" t="s">
         <v>66</v>
-      </c>
-      <c r="G17" t="s">
-        <v>68</v>
-      </c>
-      <c r="H17" t="s">
-        <v>69</v>
-      </c>
-      <c r="I17" t="s">
-        <v>67</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1902,31 +1898,31 @@
         <v>64</v>
       </c>
       <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" t="s">
         <v>71</v>
       </c>
-      <c r="D18" t="s">
-        <v>72</v>
-      </c>
       <c r="E18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" t="s">
         <v>114</v>
       </c>
-      <c r="F18" t="s">
-        <v>98</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>115</v>
       </c>
-      <c r="H18" t="s">
-        <v>116</v>
-      </c>
       <c r="I18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J18">
         <v>2</v>
       </c>
       <c r="K18" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1937,31 +1933,31 @@
         <v>64</v>
       </c>
       <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" t="s">
         <v>73</v>
       </c>
-      <c r="D19" t="s">
-        <v>74</v>
-      </c>
       <c r="E19" t="s">
-        <v>118</v>
+        <v>229</v>
       </c>
       <c r="F19" t="s">
-        <v>119</v>
+        <v>230</v>
       </c>
       <c r="G19" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="H19" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="I19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J19">
         <v>3</v>
       </c>
       <c r="K19" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1972,31 +1968,31 @@
         <v>64</v>
       </c>
       <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" t="s">
         <v>75</v>
       </c>
-      <c r="D20" t="s">
-        <v>76</v>
-      </c>
       <c r="E20" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G20" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J20">
         <v>4</v>
       </c>
       <c r="K20" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -2004,34 +2000,34 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J21">
         <v>4</v>
       </c>
       <c r="K21" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -2039,34 +2035,34 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s">
+        <v>88</v>
+      </c>
+      <c r="I22" t="s">
         <v>89</v>
-      </c>
-      <c r="I22" t="s">
-        <v>90</v>
       </c>
       <c r="J22">
         <v>3</v>
       </c>
       <c r="K22" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -2074,34 +2070,34 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G23" t="s">
+        <v>89</v>
+      </c>
+      <c r="H23" t="s">
+        <v>88</v>
+      </c>
+      <c r="I23" t="s">
         <v>90</v>
-      </c>
-      <c r="H23" t="s">
-        <v>89</v>
-      </c>
-      <c r="I23" t="s">
-        <v>91</v>
       </c>
       <c r="J23">
         <v>2</v>
       </c>
       <c r="K23" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -2109,34 +2105,34 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F24" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24" t="s">
         <v>91</v>
-      </c>
-      <c r="G24" t="s">
-        <v>90</v>
-      </c>
-      <c r="H24" t="s">
-        <v>89</v>
-      </c>
-      <c r="I24" t="s">
-        <v>92</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -2144,34 +2140,34 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F25" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" t="s">
         <v>101</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>102</v>
       </c>
-      <c r="H25" t="s">
-        <v>103</v>
-      </c>
       <c r="I25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -2179,34 +2175,34 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
       </c>
       <c r="E26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" t="s">
         <v>105</v>
       </c>
-      <c r="F26" t="s">
-        <v>107</v>
-      </c>
-      <c r="G26" t="s">
-        <v>104</v>
-      </c>
-      <c r="H26" t="s">
-        <v>106</v>
-      </c>
       <c r="I26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J26">
         <v>3</v>
       </c>
       <c r="K26" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -2214,34 +2210,34 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
       </c>
       <c r="E27" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" t="s">
         <v>108</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>109</v>
       </c>
-      <c r="G27" t="s">
-        <v>110</v>
-      </c>
       <c r="H27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J27">
         <v>4</v>
       </c>
       <c r="K27" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -2249,34 +2245,34 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" t="s">
         <v>80</v>
       </c>
-      <c r="C28" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" t="s">
-        <v>81</v>
-      </c>
       <c r="E28" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" t="s">
         <v>111</v>
       </c>
-      <c r="F28" t="s">
-        <v>96</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>112</v>
       </c>
-      <c r="H28" t="s">
-        <v>113</v>
-      </c>
       <c r="I28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J28">
         <v>2</v>
       </c>
       <c r="K28" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -2284,34 +2280,34 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C29" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E29" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F29" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G29" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H29" t="s">
         <v>36</v>
       </c>
       <c r="I29" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J29">
         <v>3</v>
       </c>
       <c r="K29" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -2319,34 +2315,34 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" t="s">
         <v>124</v>
       </c>
-      <c r="C30" t="s">
-        <v>129</v>
-      </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E30" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F30" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G30" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H30" t="s">
         <v>36</v>
       </c>
       <c r="I30" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="J30">
         <v>2</v>
       </c>
       <c r="K30" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -2354,34 +2350,34 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E31" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F31" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G31" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H31" t="s">
         <v>36</v>
       </c>
       <c r="I31" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="J31">
         <v>2</v>
       </c>
       <c r="K31" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -2389,34 +2385,34 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" t="s">
+        <v>133</v>
+      </c>
+      <c r="F32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G32" t="s">
         <v>131</v>
-      </c>
-      <c r="D32" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" t="s">
-        <v>138</v>
-      </c>
-      <c r="F32" t="s">
-        <v>137</v>
-      </c>
-      <c r="G32" t="s">
-        <v>136</v>
       </c>
       <c r="H32" t="s">
         <v>36</v>
       </c>
       <c r="I32" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="J32">
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -2424,34 +2420,34 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C33" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" t="s">
+        <v>133</v>
+      </c>
+      <c r="F33" t="s">
         <v>132</v>
       </c>
-      <c r="D33" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" t="s">
-        <v>138</v>
-      </c>
-      <c r="F33" t="s">
-        <v>137</v>
-      </c>
       <c r="G33" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H33" t="s">
         <v>36</v>
       </c>
       <c r="I33" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="J33">
         <v>2</v>
       </c>
       <c r="K33" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -2459,34 +2455,34 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C34" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" t="s">
         <v>133</v>
       </c>
-      <c r="D34" t="s">
-        <v>81</v>
-      </c>
-      <c r="E34" t="s">
-        <v>138</v>
-      </c>
       <c r="F34" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G34" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H34" t="s">
         <v>36</v>
       </c>
       <c r="I34" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="J34">
         <v>2</v>
       </c>
       <c r="K34" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -2494,34 +2490,34 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C35" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E35" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F35" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G35" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H35" t="s">
         <v>36</v>
       </c>
       <c r="I35" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J35">
         <v>3</v>
       </c>
       <c r="K35" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -2529,34 +2525,34 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C36" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E36" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F36" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G36" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H36" t="s">
         <v>36</v>
       </c>
       <c r="I36" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J36">
         <v>2</v>
       </c>
       <c r="K36" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -2564,34 +2560,34 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C37" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" t="s">
+        <v>165</v>
+      </c>
+      <c r="F37" t="s">
         <v>141</v>
       </c>
-      <c r="D37" t="s">
-        <v>81</v>
-      </c>
-      <c r="E37" t="s">
-        <v>170</v>
-      </c>
-      <c r="F37" t="s">
-        <v>146</v>
-      </c>
       <c r="G37" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H37" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="I37" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="J37">
         <v>2</v>
       </c>
       <c r="K37" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2599,34 +2595,34 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" t="s">
+        <v>168</v>
+      </c>
+      <c r="F38" t="s">
+        <v>169</v>
+      </c>
+      <c r="G38" t="s">
         <v>142</v>
       </c>
-      <c r="D38" t="s">
-        <v>81</v>
-      </c>
-      <c r="E38" t="s">
-        <v>173</v>
-      </c>
-      <c r="F38" t="s">
-        <v>174</v>
-      </c>
-      <c r="G38" t="s">
-        <v>147</v>
-      </c>
       <c r="H38" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="I38" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="J38">
         <v>3</v>
       </c>
       <c r="K38" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -2634,34 +2630,34 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C39" t="s">
+        <v>138</v>
+      </c>
+      <c r="D39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" t="s">
+        <v>171</v>
+      </c>
+      <c r="F39" t="s">
         <v>143</v>
       </c>
-      <c r="D39" t="s">
-        <v>81</v>
-      </c>
-      <c r="E39" t="s">
-        <v>176</v>
-      </c>
-      <c r="F39" t="s">
-        <v>148</v>
-      </c>
       <c r="G39" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H39" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I39" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J39">
         <v>2</v>
       </c>
       <c r="K39" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -2669,34 +2665,34 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C40" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" t="s">
+        <v>174</v>
+      </c>
+      <c r="F40" t="s">
+        <v>175</v>
+      </c>
+      <c r="G40" t="s">
+        <v>176</v>
+      </c>
+      <c r="H40" t="s">
         <v>144</v>
       </c>
-      <c r="D40" t="s">
-        <v>81</v>
-      </c>
-      <c r="E40" t="s">
-        <v>179</v>
-      </c>
-      <c r="F40" t="s">
-        <v>180</v>
-      </c>
-      <c r="G40" t="s">
-        <v>181</v>
-      </c>
-      <c r="H40" t="s">
-        <v>149</v>
-      </c>
       <c r="I40" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="J40">
         <v>4</v>
       </c>
       <c r="K40" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -2704,34 +2700,34 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C41" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" t="s">
         <v>145</v>
       </c>
-      <c r="D41" t="s">
-        <v>81</v>
-      </c>
-      <c r="E41" t="s">
-        <v>150</v>
-      </c>
       <c r="F41" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G41" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H41" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I41" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J41">
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -2739,34 +2735,34 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D42" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F42" t="s">
+        <v>181</v>
+      </c>
+      <c r="G42" t="s">
         <v>151</v>
       </c>
-      <c r="D42" t="s">
-        <v>81</v>
-      </c>
-      <c r="E42" t="s">
-        <v>185</v>
-      </c>
-      <c r="F42" t="s">
-        <v>186</v>
-      </c>
-      <c r="G42" t="s">
-        <v>156</v>
-      </c>
       <c r="H42" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="I42" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="J42">
         <v>3</v>
       </c>
       <c r="K42" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -2774,34 +2770,34 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C43" t="s">
+        <v>147</v>
+      </c>
+      <c r="D43" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" t="s">
         <v>152</v>
       </c>
-      <c r="D43" t="s">
-        <v>81</v>
-      </c>
-      <c r="E43" t="s">
-        <v>157</v>
-      </c>
       <c r="F43" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G43" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H43" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="I43" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="J43">
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -2809,34 +2805,34 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C44" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" t="s">
+        <v>186</v>
+      </c>
+      <c r="F44" t="s">
+        <v>187</v>
+      </c>
+      <c r="G44" t="s">
         <v>153</v>
       </c>
-      <c r="D44" t="s">
-        <v>81</v>
-      </c>
-      <c r="E44" t="s">
-        <v>191</v>
-      </c>
-      <c r="F44" t="s">
-        <v>192</v>
-      </c>
-      <c r="G44" t="s">
-        <v>158</v>
-      </c>
       <c r="H44" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="I44" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="J44">
         <v>3</v>
       </c>
       <c r="K44" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -2844,34 +2840,34 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C45" t="s">
+        <v>149</v>
+      </c>
+      <c r="D45" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" t="s">
+        <v>189</v>
+      </c>
+      <c r="F45" t="s">
+        <v>190</v>
+      </c>
+      <c r="G45" t="s">
+        <v>191</v>
+      </c>
+      <c r="H45" t="s">
         <v>154</v>
       </c>
-      <c r="D45" t="s">
-        <v>81</v>
-      </c>
-      <c r="E45" t="s">
-        <v>194</v>
-      </c>
-      <c r="F45" t="s">
-        <v>195</v>
-      </c>
-      <c r="G45" t="s">
-        <v>196</v>
-      </c>
-      <c r="H45" t="s">
-        <v>159</v>
-      </c>
       <c r="I45" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="J45">
         <v>4</v>
       </c>
       <c r="K45" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -2879,34 +2875,34 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C46" t="s">
+        <v>150</v>
+      </c>
+      <c r="D46" t="s">
+        <v>80</v>
+      </c>
+      <c r="E46" t="s">
+        <v>192</v>
+      </c>
+      <c r="F46" t="s">
         <v>155</v>
       </c>
-      <c r="D46" t="s">
-        <v>81</v>
-      </c>
-      <c r="E46" t="s">
-        <v>197</v>
-      </c>
-      <c r="F46" t="s">
-        <v>160</v>
-      </c>
       <c r="G46" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H46" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="I46" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J46">
         <v>2</v>
       </c>
       <c r="K46" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -2914,34 +2910,34 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C47" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E47" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F47" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G47" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H47" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I47" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J47">
         <v>2</v>
       </c>
       <c r="K47" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -2949,34 +2945,34 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C48" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E48" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F48" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G48" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H48" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I48" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J48">
         <v>4</v>
       </c>
       <c r="K48" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -2984,34 +2980,34 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C49" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E49" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F49" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G49" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H49" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="I49" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="J49">
         <v>1</v>
       </c>
       <c r="K49" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -3019,34 +3015,34 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C50" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E50" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F50" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G50" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="H50" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="I50" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="J50">
         <v>2</v>
       </c>
       <c r="K50" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -3054,34 +3050,34 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C51" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E51" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F51" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G51" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H51" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I51" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="J51">
         <v>3</v>
       </c>
       <c r="K51" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -3095,7 +3091,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
